--- a/instance/parameters_energy_model.xlsx
+++ b/instance/parameters_energy_model.xlsx
@@ -95,7 +95,7 @@
     <t>Layer thickness[mm]</t>
   </si>
   <si>
-    <t>Power of power of gas circulation pump motor[w]</t>
+    <t>Power of gas circulation pump motor[w]</t>
   </si>
   <si>
     <t>Heating time[s]</t>
@@ -1203,7 +1203,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
